--- a/biology/Zoologie/Eresus_walckenaeri/Eresus_walckenaeri.xlsx
+++ b/biology/Zoologie/Eresus_walckenaeri/Eresus_walckenaeri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eresus walckenaeri est une espèce d'araignées aranéomorphes de la famille des Eresidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eresus walckenaeri est une espèce d'araignées aranéomorphes de la famille des Eresidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre dans le bassin méditerranéen et en Afghanistan[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre dans le bassin méditerranéen et en Afghanistan.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 15.5, 29/12/2014)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 15.5, 29/12/2014) :
 Eresus walckenaeri moerens C. L. Koch, 1846 d'Afghanistan
 Eresus walckenaeri walckenaeri Brullé, 1832 du bassin méditerranéen</t>
         </is>
@@ -574,7 +590,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est nommée en l'honneur de Charles Athanase Walckenaer.
 </t>
@@ -605,7 +623,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Brullé, 1832 : Des Animaux articulé, Araneae. Expédition scientifique de Morée, section des sciences physiques, Zoologie, Paris, tome 3, p. 51-57 (texte intégral).
 C. L. Koch, 1846 : Die Arachniden. Nürnberg, vol. 13, p. 1-234 (texte intégral).</t>
